--- a/exp/data/exp2/25_TNT_experiment1_part2_new_2015_12_03_1441.xlsx
+++ b/exp/data/exp2/25_TNT_experiment1_part2_new_2015_12_03_1441.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snishiyama/Experiments/TNT-DP/exp/data/exp2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE6ABB-6D73-034E-BF8B-5C8FE03EB049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="390" windowWidth="15090" windowHeight="8265" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="15100" windowHeight="8260" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25_TNT_experiment1_part2_new_20" sheetId="1" r:id="rId1"/>
-    <sheet name="learn" sheetId="2" r:id="rId2"/>
+    <sheet name="learn_test" sheetId="2" r:id="rId2"/>
     <sheet name="tar_recall" sheetId="3" r:id="rId3"/>
     <sheet name="sub_recall" sheetId="4" r:id="rId4"/>
     <sheet name="DP" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DP!$A$1:$J$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">learn_test!$A$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sub_recall!$A$1:$H$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tar_recall!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2006,12 +2022,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2019,7 +2035,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2028,7 +2044,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2037,7 +2053,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2046,7 +2062,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2055,7 +2071,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2063,7 +2079,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2071,7 +2087,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2079,7 +2095,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2087,7 +2103,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2096,7 +2112,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2105,7 +2121,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2113,7 +2129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2122,7 +2138,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2130,7 +2146,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2139,7 +2155,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2148,7 +2164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2156,14 +2172,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2609,48 +2625,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2658,12 +2674,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2705,7 +2724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2738,9 +2757,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2773,6 +2809,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2948,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GJ754"/>
   <sheetViews>
     <sheetView topLeftCell="ET1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2956,9 +3009,9 @@
       <selection pane="bottomLeft" activeCell="FB561" sqref="FB561:FD696"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G2">
         <v>1</v>
       </c>
@@ -3565,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G3">
         <v>1</v>
       </c>
@@ -3594,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G4">
         <v>1</v>
       </c>
@@ -3623,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G5">
         <v>1</v>
       </c>
@@ -3652,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G6">
         <v>1</v>
       </c>
@@ -3681,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3728,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -3775,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -3822,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -3869,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -3916,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -3963,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -4010,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -4057,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -4104,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -4151,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -4198,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -4245,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -4292,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -4339,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -4386,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4433,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -4480,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -4527,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -4574,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -4621,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -4668,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -4715,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -4762,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -4809,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>194</v>
       </c>
@@ -4856,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -4903,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -4950,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -4997,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -5044,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -5091,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -5138,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -5185,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -5232,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -5279,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -5326,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -5373,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -5420,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -5467,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -5514,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -5561,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -5608,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -5655,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -5702,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -5749,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -5796,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -5843,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G53">
         <v>1</v>
       </c>
@@ -5872,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -5928,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -5984,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -6040,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -6096,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>194</v>
       </c>
@@ -6152,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -6208,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -6264,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -6320,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -6376,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>194</v>
       </c>
@@ -6432,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -6488,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -6544,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -6600,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -6656,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>194</v>
       </c>
@@ -6712,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -6768,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -6824,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -6880,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -6936,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -6992,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -7048,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -7104,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -7160,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -7216,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -7272,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -7328,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -7384,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -7440,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>194</v>
       </c>
@@ -7496,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -7552,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -7608,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -7664,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -7720,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -7776,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>194</v>
       </c>
@@ -7832,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7888,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -7944,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -8000,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -8056,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -8112,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -8168,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -8224,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>194</v>
       </c>
@@ -8280,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -8336,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -8389,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -8445,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G100">
         <v>1</v>
       </c>
@@ -8474,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G101">
         <v>1</v>
       </c>
@@ -8503,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G102">
         <v>1</v>
       </c>
@@ -8532,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G103">
         <v>1</v>
       </c>
@@ -8561,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -8620,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -8679,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -8738,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>194</v>
       </c>
@@ -8797,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -8856,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -8915,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -8974,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -9033,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -9092,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -9151,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -9210,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -9269,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>194</v>
       </c>
@@ -9328,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -9387,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>194</v>
       </c>
@@ -9446,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>194</v>
       </c>
@@ -9505,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>194</v>
       </c>
@@ -9564,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>194</v>
       </c>
@@ -9623,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>194</v>
       </c>
@@ -9682,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>194</v>
       </c>
@@ -9741,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>194</v>
       </c>
@@ -9800,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>194</v>
       </c>
@@ -9859,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>194</v>
       </c>
@@ -9918,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>194</v>
       </c>
@@ -9977,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -10036,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>194</v>
       </c>
@@ -10095,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>194</v>
       </c>
@@ -10154,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>194</v>
       </c>
@@ -10213,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -10272,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -10331,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -10390,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>194</v>
       </c>
@@ -10449,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>194</v>
       </c>
@@ -10508,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>194</v>
       </c>
@@ -10567,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>194</v>
       </c>
@@ -10626,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>194</v>
       </c>
@@ -10685,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>194</v>
       </c>
@@ -10744,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -10803,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -10862,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>194</v>
       </c>
@@ -10921,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -10980,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -11039,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>194</v>
       </c>
@@ -11098,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G147">
         <v>1</v>
       </c>
@@ -11127,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G148">
         <v>1</v>
       </c>
@@ -11156,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G149">
         <v>1</v>
       </c>
@@ -11185,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G150">
         <v>1</v>
       </c>
@@ -11214,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G151">
         <v>1</v>
       </c>
@@ -11243,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G152">
         <v>1</v>
       </c>
@@ -11272,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>229</v>
       </c>
@@ -11316,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>269</v>
       </c>
@@ -11360,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>269</v>
       </c>
@@ -11404,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>283</v>
       </c>
@@ -11448,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>283</v>
       </c>
@@ -11492,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>251</v>
       </c>
@@ -11536,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>269</v>
       </c>
@@ -11580,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:192" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>223</v>
       </c>
@@ -11624,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>275</v>
       </c>
@@ -11668,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>257</v>
       </c>
@@ -11712,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>249</v>
       </c>
@@ -11756,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>261</v>
       </c>
@@ -11800,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>283</v>
       </c>
@@ -11844,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>269</v>
       </c>
@@ -11888,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>253</v>
       </c>
@@ -11932,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>283</v>
       </c>
@@ -11976,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G169">
         <v>1</v>
       </c>
@@ -12005,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G170">
         <v>1</v>
       </c>
@@ -12034,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G171">
         <v>1</v>
       </c>
@@ -12063,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G172">
         <v>1</v>
       </c>
@@ -12092,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G173">
         <v>1</v>
       </c>
@@ -12121,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>217</v>
       </c>
@@ -12165,7 +12218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>283</v>
       </c>
@@ -12209,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>255</v>
       </c>
@@ -12253,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>271</v>
       </c>
@@ -12297,7 +12350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>267</v>
       </c>
@@ -12341,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>231</v>
       </c>
@@ -12385,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>219</v>
       </c>
@@ -12429,7 +12482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>203</v>
       </c>
@@ -12473,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>285</v>
       </c>
@@ -12517,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>225</v>
       </c>
@@ -12561,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>227</v>
       </c>
@@ -12605,7 +12658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>269</v>
       </c>
@@ -12649,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>239</v>
       </c>
@@ -12693,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>207</v>
       </c>
@@ -12737,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G188">
         <v>1</v>
       </c>
@@ -12766,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G189">
         <v>1</v>
       </c>
@@ -12795,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>261</v>
       </c>
@@ -12839,7 +12892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>283</v>
       </c>
@@ -12883,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>283</v>
       </c>
@@ -12927,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>257</v>
       </c>
@@ -12971,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>249</v>
       </c>
@@ -13015,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>269</v>
       </c>
@@ -13059,7 +13112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>223</v>
       </c>
@@ -13103,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>269</v>
       </c>
@@ -13147,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>269</v>
       </c>
@@ -13191,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>229</v>
       </c>
@@ -13235,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>275</v>
       </c>
@@ -13279,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>283</v>
       </c>
@@ -13323,7 +13376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>269</v>
       </c>
@@ -13367,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>253</v>
       </c>
@@ -13411,7 +13464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>283</v>
       </c>
@@ -13455,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>251</v>
       </c>
@@ -13499,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G206">
         <v>1</v>
       </c>
@@ -13528,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G207">
         <v>1</v>
       </c>
@@ -13557,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G208">
         <v>1</v>
       </c>
@@ -13586,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G209">
         <v>1</v>
       </c>
@@ -13615,7 +13668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>229</v>
       </c>
@@ -13659,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>283</v>
       </c>
@@ -13703,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>269</v>
       </c>
@@ -13747,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>269</v>
       </c>
@@ -13791,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>283</v>
       </c>
@@ -13835,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>283</v>
       </c>
@@ -13879,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>275</v>
       </c>
@@ -13923,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>223</v>
       </c>
@@ -13967,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>283</v>
       </c>
@@ -14011,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>257</v>
       </c>
@@ -14055,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>251</v>
       </c>
@@ -14099,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>261</v>
       </c>
@@ -14143,7 +14196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>249</v>
       </c>
@@ -14187,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>269</v>
       </c>
@@ -14231,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>253</v>
       </c>
@@ -14275,7 +14328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>269</v>
       </c>
@@ -14319,7 +14372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G226">
         <v>1</v>
       </c>
@@ -14348,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>283</v>
       </c>
@@ -14392,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>203</v>
       </c>
@@ -14436,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>231</v>
       </c>
@@ -14480,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>227</v>
       </c>
@@ -14524,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>207</v>
       </c>
@@ -14568,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>239</v>
       </c>
@@ -14612,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>271</v>
       </c>
@@ -14656,7 +14709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>217</v>
       </c>
@@ -14700,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>269</v>
       </c>
@@ -14744,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>219</v>
       </c>
@@ -14788,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>255</v>
       </c>
@@ -14832,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>285</v>
       </c>
@@ -14876,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>225</v>
       </c>
@@ -14920,7 +14973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>267</v>
       </c>
@@ -14964,7 +15017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>221</v>
       </c>
@@ -15026,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>211</v>
       </c>
@@ -15082,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>271</v>
       </c>
@@ -15138,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>263</v>
       </c>
@@ -15194,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>245</v>
       </c>
@@ -15250,7 +15303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>267</v>
       </c>
@@ -15306,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>197</v>
       </c>
@@ -15362,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>273</v>
       </c>
@@ -15418,7 +15471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>239</v>
       </c>
@@ -15474,7 +15527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>255</v>
       </c>
@@ -15530,7 +15583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>231</v>
       </c>
@@ -15586,7 +15639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>217</v>
       </c>
@@ -15642,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>241</v>
       </c>
@@ -15698,7 +15751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>215</v>
       </c>
@@ -15754,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>219</v>
       </c>
@@ -15810,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>207</v>
       </c>
@@ -15866,7 +15919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>225</v>
       </c>
@@ -15922,7 +15975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>227</v>
       </c>
@@ -15978,7 +16031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>233</v>
       </c>
@@ -16034,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>247</v>
       </c>
@@ -16090,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>285</v>
       </c>
@@ -16146,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>203</v>
       </c>
@@ -16202,7 +16255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>195</v>
       </c>
@@ -16258,7 +16311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>209</v>
       </c>
@@ -16314,7 +16367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G265">
         <v>1</v>
       </c>
@@ -16349,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>233</v>
       </c>
@@ -16408,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>241</v>
       </c>
@@ -16464,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>273</v>
       </c>
@@ -16520,7 +16573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>285</v>
       </c>
@@ -16576,7 +16629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>197</v>
       </c>
@@ -16632,7 +16685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>215</v>
       </c>
@@ -16688,7 +16741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>239</v>
       </c>
@@ -16744,7 +16797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>217</v>
       </c>
@@ -16800,7 +16853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>231</v>
       </c>
@@ -16856,7 +16909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>207</v>
       </c>
@@ -16912,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>195</v>
       </c>
@@ -16968,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>247</v>
       </c>
@@ -17024,7 +17077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>245</v>
       </c>
@@ -17080,7 +17133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>263</v>
       </c>
@@ -17136,7 +17189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>203</v>
       </c>
@@ -17192,7 +17245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>219</v>
       </c>
@@ -17248,7 +17301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
         <v>225</v>
       </c>
@@ -17304,7 +17357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
         <v>209</v>
       </c>
@@ -17360,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>221</v>
       </c>
@@ -17416,7 +17469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>271</v>
       </c>
@@ -17472,7 +17525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>227</v>
       </c>
@@ -17528,7 +17581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>211</v>
       </c>
@@ -17584,7 +17637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>267</v>
       </c>
@@ -17640,7 +17693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>255</v>
       </c>
@@ -17696,7 +17749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G290">
         <v>1</v>
       </c>
@@ -17731,7 +17784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>263</v>
       </c>
@@ -17790,7 +17843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>211</v>
       </c>
@@ -17846,7 +17899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>255</v>
       </c>
@@ -17902,7 +17955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>233</v>
       </c>
@@ -17958,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>239</v>
       </c>
@@ -18014,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>215</v>
       </c>
@@ -18070,7 +18123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>285</v>
       </c>
@@ -18126,7 +18179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>273</v>
       </c>
@@ -18182,7 +18235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>219</v>
       </c>
@@ -18238,7 +18291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>271</v>
       </c>
@@ -18294,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>217</v>
       </c>
@@ -18350,7 +18403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>247</v>
       </c>
@@ -18406,7 +18459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>195</v>
       </c>
@@ -18462,7 +18515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>203</v>
       </c>
@@ -18518,7 +18571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>241</v>
       </c>
@@ -18574,7 +18627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>207</v>
       </c>
@@ -18630,7 +18683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>221</v>
       </c>
@@ -18686,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>227</v>
       </c>
@@ -18742,7 +18795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>245</v>
       </c>
@@ -18798,7 +18851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>209</v>
       </c>
@@ -18854,7 +18907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>225</v>
       </c>
@@ -18910,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>267</v>
       </c>
@@ -18966,7 +19019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>197</v>
       </c>
@@ -19022,7 +19075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>231</v>
       </c>
@@ -19078,7 +19131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G315">
         <v>1</v>
       </c>
@@ -19113,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>197</v>
       </c>
@@ -19175,7 +19228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>221</v>
       </c>
@@ -19231,7 +19284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>285</v>
       </c>
@@ -19287,7 +19340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>225</v>
       </c>
@@ -19343,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>195</v>
       </c>
@@ -19399,7 +19452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>273</v>
       </c>
@@ -19455,7 +19508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>247</v>
       </c>
@@ -19511,7 +19564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>245</v>
       </c>
@@ -19567,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>207</v>
       </c>
@@ -19623,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>263</v>
       </c>
@@ -19679,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>215</v>
       </c>
@@ -19735,7 +19788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>255</v>
       </c>
@@ -19791,7 +19844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>233</v>
       </c>
@@ -19847,7 +19900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>267</v>
       </c>
@@ -19903,7 +19956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>239</v>
       </c>
@@ -19959,7 +20012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>217</v>
       </c>
@@ -20015,7 +20068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>227</v>
       </c>
@@ -20071,7 +20124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>241</v>
       </c>
@@ -20127,7 +20180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>209</v>
       </c>
@@ -20183,7 +20236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>219</v>
       </c>
@@ -20239,7 +20292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>231</v>
       </c>
@@ -20295,7 +20348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>211</v>
       </c>
@@ -20351,7 +20404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>203</v>
       </c>
@@ -20407,7 +20460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>271</v>
       </c>
@@ -20463,7 +20516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G340">
         <v>1</v>
       </c>
@@ -20498,7 +20551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>267</v>
       </c>
@@ -20557,7 +20610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>241</v>
       </c>
@@ -20613,7 +20666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>221</v>
       </c>
@@ -20669,7 +20722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>227</v>
       </c>
@@ -20725,7 +20778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>209</v>
       </c>
@@ -20781,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>211</v>
       </c>
@@ -20837,7 +20890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>245</v>
       </c>
@@ -20893,7 +20946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>215</v>
       </c>
@@ -20949,7 +21002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>195</v>
       </c>
@@ -21005,7 +21058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>271</v>
       </c>
@@ -21061,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>217</v>
       </c>
@@ -21117,7 +21170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>225</v>
       </c>
@@ -21173,7 +21226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>219</v>
       </c>
@@ -21229,7 +21282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>285</v>
       </c>
@@ -21285,7 +21338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>197</v>
       </c>
@@ -21341,7 +21394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>233</v>
       </c>
@@ -21397,7 +21450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>203</v>
       </c>
@@ -21453,7 +21506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>273</v>
       </c>
@@ -21509,7 +21562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>255</v>
       </c>
@@ -21565,7 +21618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>231</v>
       </c>
@@ -21621,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>247</v>
       </c>
@@ -21677,7 +21730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>207</v>
       </c>
@@ -21733,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>263</v>
       </c>
@@ -21789,7 +21842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>239</v>
       </c>
@@ -21845,7 +21898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G365">
         <v>1</v>
       </c>
@@ -21880,7 +21933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>231</v>
       </c>
@@ -21939,7 +21992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>263</v>
       </c>
@@ -21995,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>247</v>
       </c>
@@ -22051,7 +22104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>239</v>
       </c>
@@ -22107,7 +22160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>195</v>
       </c>
@@ -22163,7 +22216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>207</v>
       </c>
@@ -22219,7 +22272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>255</v>
       </c>
@@ -22275,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>267</v>
       </c>
@@ -22331,7 +22384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>285</v>
       </c>
@@ -22387,7 +22440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>233</v>
       </c>
@@ -22443,7 +22496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>203</v>
       </c>
@@ -22499,7 +22552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>271</v>
       </c>
@@ -22555,7 +22608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>245</v>
       </c>
@@ -22611,7 +22664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>241</v>
       </c>
@@ -22667,7 +22720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>211</v>
       </c>
@@ -22723,7 +22776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>215</v>
       </c>
@@ -22779,7 +22832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>273</v>
       </c>
@@ -22835,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>225</v>
       </c>
@@ -22891,7 +22944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>227</v>
       </c>
@@ -22947,7 +23000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>221</v>
       </c>
@@ -23003,7 +23056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>197</v>
       </c>
@@ -23059,7 +23112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>209</v>
       </c>
@@ -23115,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>219</v>
       </c>
@@ -23171,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>217</v>
       </c>
@@ -23227,7 +23280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>255</v>
       </c>
@@ -23301,7 +23354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>227</v>
       </c>
@@ -23369,7 +23422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>231</v>
       </c>
@@ -23437,7 +23490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>203</v>
       </c>
@@ -23505,7 +23558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>207</v>
       </c>
@@ -23573,7 +23626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>269</v>
       </c>
@@ -23641,7 +23694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>271</v>
       </c>
@@ -23709,7 +23762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>283</v>
       </c>
@@ -23777,7 +23830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>239</v>
       </c>
@@ -23845,7 +23898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>217</v>
       </c>
@@ -23913,7 +23966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>225</v>
       </c>
@@ -23981,7 +24034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>285</v>
       </c>
@@ -24049,7 +24102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>267</v>
       </c>
@@ -24117,7 +24170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>219</v>
       </c>
@@ -24185,7 +24238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G404">
         <v>1</v>
       </c>
@@ -24232,7 +24285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G405">
         <v>1</v>
       </c>
@@ -24267,7 +24320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>245</v>
       </c>
@@ -24329,7 +24382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>197</v>
       </c>
@@ -24385,7 +24438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>215</v>
       </c>
@@ -24441,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>225</v>
       </c>
@@ -24497,7 +24550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>203</v>
       </c>
@@ -24553,7 +24606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>271</v>
       </c>
@@ -24609,7 +24662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>241</v>
       </c>
@@ -24665,7 +24718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>233</v>
       </c>
@@ -24721,7 +24774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>195</v>
       </c>
@@ -24777,7 +24830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>263</v>
       </c>
@@ -24833,7 +24886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>273</v>
       </c>
@@ -24889,7 +24942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>217</v>
       </c>
@@ -24945,7 +24998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>221</v>
       </c>
@@ -25001,7 +25054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>247</v>
       </c>
@@ -25057,7 +25110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>211</v>
       </c>
@@ -25113,7 +25166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>255</v>
       </c>
@@ -25169,7 +25222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="422" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>285</v>
       </c>
@@ -25225,7 +25278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="423" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>231</v>
       </c>
@@ -25281,7 +25334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="424" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>239</v>
       </c>
@@ -25337,7 +25390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="425" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>207</v>
       </c>
@@ -25393,7 +25446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="426" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>209</v>
       </c>
@@ -25449,7 +25502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="427" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>219</v>
       </c>
@@ -25505,7 +25558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="428" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>267</v>
       </c>
@@ -25561,7 +25614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="429" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>227</v>
       </c>
@@ -25617,7 +25670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="430" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G430">
         <v>1</v>
       </c>
@@ -25652,7 +25705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="431" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>241</v>
       </c>
@@ -25711,7 +25764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="432" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>267</v>
       </c>
@@ -25767,7 +25820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="433" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>219</v>
       </c>
@@ -25823,7 +25876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="434" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>209</v>
       </c>
@@ -25879,7 +25932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="435" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>273</v>
       </c>
@@ -25935,7 +25988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="436" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>195</v>
       </c>
@@ -25991,7 +26044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="437" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>285</v>
       </c>
@@ -26047,7 +26100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="438" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>247</v>
       </c>
@@ -26103,7 +26156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="439" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>217</v>
       </c>
@@ -26159,7 +26212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="440" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>233</v>
       </c>
@@ -26215,7 +26268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="441" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>231</v>
       </c>
@@ -26271,7 +26324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="442" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>203</v>
       </c>
@@ -26327,7 +26380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="443" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>239</v>
       </c>
@@ -26383,7 +26436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="444" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>271</v>
       </c>
@@ -26439,7 +26492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="445" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>197</v>
       </c>
@@ -26495,7 +26548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="446" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>255</v>
       </c>
@@ -26551,7 +26604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="447" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>211</v>
       </c>
@@ -26607,7 +26660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="448" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>227</v>
       </c>
@@ -26663,7 +26716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="449" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>225</v>
       </c>
@@ -26719,7 +26772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="450" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>207</v>
       </c>
@@ -26775,7 +26828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="451" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>215</v>
       </c>
@@ -26831,7 +26884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="452" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>221</v>
       </c>
@@ -26887,7 +26940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="453" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>245</v>
       </c>
@@ -26943,7 +26996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="454" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>263</v>
       </c>
@@ -26999,7 +27052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="455" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G455">
         <v>1</v>
       </c>
@@ -27034,7 +27087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="456" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>285</v>
       </c>
@@ -27093,7 +27146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="457" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>219</v>
       </c>
@@ -27149,7 +27202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="458" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>203</v>
       </c>
@@ -27205,7 +27258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="459" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>271</v>
       </c>
@@ -27261,7 +27314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="460" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>207</v>
       </c>
@@ -27317,7 +27370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="461" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>233</v>
       </c>
@@ -27373,7 +27426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="462" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>263</v>
       </c>
@@ -27429,7 +27482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="463" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>215</v>
       </c>
@@ -27485,7 +27538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="464" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>247</v>
       </c>
@@ -27541,7 +27594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="465" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>267</v>
       </c>
@@ -27597,7 +27650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="466" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>195</v>
       </c>
@@ -27653,7 +27706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="467" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>227</v>
       </c>
@@ -27709,7 +27762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="468" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>241</v>
       </c>
@@ -27765,7 +27818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="469" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>273</v>
       </c>
@@ -27821,7 +27874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="470" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>197</v>
       </c>
@@ -27877,7 +27930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="471" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>255</v>
       </c>
@@ -27933,7 +27986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="472" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>217</v>
       </c>
@@ -27989,7 +28042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="473" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>221</v>
       </c>
@@ -28045,7 +28098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="474" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>245</v>
       </c>
@@ -28101,7 +28154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="475" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>231</v>
       </c>
@@ -28157,7 +28210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="476" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>211</v>
       </c>
@@ -28213,7 +28266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="477" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>225</v>
       </c>
@@ -28269,7 +28322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="478" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>209</v>
       </c>
@@ -28325,7 +28378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="479" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>239</v>
       </c>
@@ -28381,7 +28434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="480" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G480">
         <v>1</v>
       </c>
@@ -28416,7 +28469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="481" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>221</v>
       </c>
@@ -28478,7 +28531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="482" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>255</v>
       </c>
@@ -28534,7 +28587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="483" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>233</v>
       </c>
@@ -28590,7 +28643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="484" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>241</v>
       </c>
@@ -28646,7 +28699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="485" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>203</v>
       </c>
@@ -28702,7 +28755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>211</v>
       </c>
@@ -28758,7 +28811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="487" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>245</v>
       </c>
@@ -28814,7 +28867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="488" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>247</v>
       </c>
@@ -28870,7 +28923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>219</v>
       </c>
@@ -28926,7 +28979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="490" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>207</v>
       </c>
@@ -28982,7 +29035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="491" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>209</v>
       </c>
@@ -29038,7 +29091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="492" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>285</v>
       </c>
@@ -29094,7 +29147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="493" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>225</v>
       </c>
@@ -29150,7 +29203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="494" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>227</v>
       </c>
@@ -29206,7 +29259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="495" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>197</v>
       </c>
@@ -29262,7 +29315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="496" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>195</v>
       </c>
@@ -29318,7 +29371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="497" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>239</v>
       </c>
@@ -29374,7 +29427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="498" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>273</v>
       </c>
@@ -29430,7 +29483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="499" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>267</v>
       </c>
@@ -29486,7 +29539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="500" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>263</v>
       </c>
@@ -29542,7 +29595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="501" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>215</v>
       </c>
@@ -29598,7 +29651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="502" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>271</v>
       </c>
@@ -29654,7 +29707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="503" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>231</v>
       </c>
@@ -29710,7 +29763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="504" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>217</v>
       </c>
@@ -29766,7 +29819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="505" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G505">
         <v>1</v>
       </c>
@@ -29801,7 +29854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="506" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>207</v>
       </c>
@@ -29860,7 +29913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="507" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>271</v>
       </c>
@@ -29916,7 +29969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="508" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>211</v>
       </c>
@@ -29972,7 +30025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="509" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>245</v>
       </c>
@@ -30028,7 +30081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="510" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B510" t="s">
         <v>209</v>
       </c>
@@ -30084,7 +30137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="511" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>233</v>
       </c>
@@ -30140,7 +30193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="512" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>239</v>
       </c>
@@ -30196,7 +30249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>267</v>
       </c>
@@ -30252,7 +30305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>231</v>
       </c>
@@ -30308,7 +30361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>225</v>
       </c>
@@ -30364,7 +30417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>215</v>
       </c>
@@ -30420,7 +30473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>255</v>
       </c>
@@ -30476,7 +30529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>263</v>
       </c>
@@ -30532,7 +30585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>247</v>
       </c>
@@ -30588,7 +30641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>217</v>
       </c>
@@ -30644,7 +30697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>241</v>
       </c>
@@ -30700,7 +30753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>273</v>
       </c>
@@ -30756,7 +30809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>219</v>
       </c>
@@ -30812,7 +30865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>195</v>
       </c>
@@ -30868,7 +30921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>203</v>
       </c>
@@ -30924,7 +30977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>227</v>
       </c>
@@ -30980,7 +31033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>221</v>
       </c>
@@ -31036,7 +31089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>197</v>
       </c>
@@ -31092,7 +31145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="529" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B529" t="s">
         <v>285</v>
       </c>
@@ -31148,7 +31201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="530" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G530">
         <v>1</v>
       </c>
@@ -31183,7 +31236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="531" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
         <v>245</v>
       </c>
@@ -31242,7 +31295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="532" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
         <v>285</v>
       </c>
@@ -31298,7 +31351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="533" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
         <v>219</v>
       </c>
@@ -31354,7 +31407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="534" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
         <v>217</v>
       </c>
@@ -31410,7 +31463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
         <v>197</v>
       </c>
@@ -31466,7 +31519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
         <v>207</v>
       </c>
@@ -31522,7 +31575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
         <v>273</v>
       </c>
@@ -31578,7 +31631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
         <v>215</v>
       </c>
@@ -31634,7 +31687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B539" t="s">
         <v>211</v>
       </c>
@@ -31690,7 +31743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
         <v>225</v>
       </c>
@@ -31746,7 +31799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
         <v>221</v>
       </c>
@@ -31802,7 +31855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
         <v>227</v>
       </c>
@@ -31858,7 +31911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
         <v>231</v>
       </c>
@@ -31914,7 +31967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
         <v>239</v>
       </c>
@@ -31970,7 +32023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
         <v>203</v>
       </c>
@@ -32026,7 +32079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
         <v>233</v>
       </c>
@@ -32082,7 +32135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
         <v>209</v>
       </c>
@@ -32138,7 +32191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
         <v>267</v>
       </c>
@@ -32194,7 +32247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
         <v>271</v>
       </c>
@@ -32250,7 +32303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B550" t="s">
         <v>255</v>
       </c>
@@ -32306,7 +32359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
         <v>241</v>
       </c>
@@ -32362,7 +32415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
         <v>247</v>
       </c>
@@ -32418,7 +32471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
         <v>195</v>
       </c>
@@ -32474,7 +32527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:192" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
         <v>263</v>
       </c>
@@ -32530,7 +32583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G555">
         <v>1</v>
       </c>
@@ -32565,7 +32618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G556">
         <v>1</v>
       </c>
@@ -32594,7 +32647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G557">
         <v>1</v>
       </c>
@@ -32623,7 +32676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G558">
         <v>1</v>
       </c>
@@ -32652,7 +32705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G559">
         <v>1</v>
       </c>
@@ -32690,7 +32743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="2:192" x14ac:dyDescent="0.15">
+    <row r="560" spans="2:192" x14ac:dyDescent="0.2">
       <c r="G560">
         <v>1</v>
       </c>
@@ -32719,7 +32772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>348</v>
       </c>
@@ -32784,7 +32837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>348</v>
       </c>
@@ -32849,7 +32902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>348</v>
       </c>
@@ -32914,7 +32967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>348</v>
       </c>
@@ -32979,7 +33032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>347</v>
       </c>
@@ -33044,7 +33097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>347</v>
       </c>
@@ -33109,7 +33162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>348</v>
       </c>
@@ -33174,7 +33227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>347</v>
       </c>
@@ -33239,7 +33292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>348</v>
       </c>
@@ -33304,7 +33357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>348</v>
       </c>
@@ -33369,7 +33422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>347</v>
       </c>
@@ -33434,7 +33487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>348</v>
       </c>
@@ -33499,7 +33552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>347</v>
       </c>
@@ -33564,7 +33617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>347</v>
       </c>
@@ -33629,7 +33682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>348</v>
       </c>
@@ -33694,7 +33747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>348</v>
       </c>
@@ -33759,7 +33812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>348</v>
       </c>
@@ -33824,7 +33877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>347</v>
       </c>
@@ -33889,7 +33942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>348</v>
       </c>
@@ -33954,7 +34007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>347</v>
       </c>
@@ -34019,7 +34072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>348</v>
       </c>
@@ -34084,7 +34137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>347</v>
       </c>
@@ -34149,7 +34202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>347</v>
       </c>
@@ -34214,7 +34267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>348</v>
       </c>
@@ -34279,7 +34332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>347</v>
       </c>
@@ -34344,7 +34397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>347</v>
       </c>
@@ -34409,7 +34462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>348</v>
       </c>
@@ -34474,7 +34527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>347</v>
       </c>
@@ -34539,7 +34592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>347</v>
       </c>
@@ -34604,7 +34657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>347</v>
       </c>
@@ -34669,7 +34722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>347</v>
       </c>
@@ -34734,7 +34787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>347</v>
       </c>
@@ -34799,7 +34852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>347</v>
       </c>
@@ -34864,7 +34917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>347</v>
       </c>
@@ -34929,7 +34982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>348</v>
       </c>
@@ -34994,7 +35047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>347</v>
       </c>
@@ -35059,7 +35112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>348</v>
       </c>
@@ -35124,7 +35177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>347</v>
       </c>
@@ -35189,7 +35242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>348</v>
       </c>
@@ -35254,7 +35307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>347</v>
       </c>
@@ -35331,7 +35384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>347</v>
       </c>
@@ -35396,7 +35449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>348</v>
       </c>
@@ -35461,7 +35514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>348</v>
       </c>
@@ -35526,7 +35579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>348</v>
       </c>
@@ -35591,7 +35644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>348</v>
       </c>
@@ -35656,7 +35709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>348</v>
       </c>
@@ -35721,7 +35774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>347</v>
       </c>
@@ -35786,7 +35839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>347</v>
       </c>
@@ -35851,7 +35904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>348</v>
       </c>
@@ -35916,7 +35969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>347</v>
       </c>
@@ -35981,7 +36034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>347</v>
       </c>
@@ -36046,7 +36099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>348</v>
       </c>
@@ -36111,7 +36164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>348</v>
       </c>
@@ -36176,7 +36229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>347</v>
       </c>
@@ -36241,7 +36294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>348</v>
       </c>
@@ -36306,7 +36359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>347</v>
       </c>
@@ -36371,7 +36424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>347</v>
       </c>
@@ -36436,7 +36489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>348</v>
       </c>
@@ -36501,7 +36554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>347</v>
       </c>
@@ -36566,7 +36619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>348</v>
       </c>
@@ -36631,7 +36684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>348</v>
       </c>
@@ -36696,7 +36749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>347</v>
       </c>
@@ -36761,7 +36814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>348</v>
       </c>
@@ -36826,7 +36879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>347</v>
       </c>
@@ -36891,7 +36944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>348</v>
       </c>
@@ -36956,7 +37009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>348</v>
       </c>
@@ -37021,7 +37074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>347</v>
       </c>
@@ -37086,7 +37139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>348</v>
       </c>
@@ -37151,7 +37204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>347</v>
       </c>
@@ -37216,7 +37269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>347</v>
       </c>
@@ -37281,7 +37334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>347</v>
       </c>
@@ -37346,7 +37399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>347</v>
       </c>
@@ -37411,7 +37464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>348</v>
       </c>
@@ -37476,7 +37529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>348</v>
       </c>
@@ -37541,7 +37594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>348</v>
       </c>
@@ -37606,7 +37659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>347</v>
       </c>
@@ -37671,7 +37724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>348</v>
       </c>
@@ -37736,7 +37789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>348</v>
       </c>
@@ -37801,7 +37854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>348</v>
       </c>
@@ -37866,7 +37919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>347</v>
       </c>
@@ -37931,7 +37984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>347</v>
       </c>
@@ -37996,7 +38049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>348</v>
       </c>
@@ -38061,7 +38114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>348</v>
       </c>
@@ -38126,7 +38179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>348</v>
       </c>
@@ -38191,7 +38244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>348</v>
       </c>
@@ -38256,7 +38309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>347</v>
       </c>
@@ -38321,7 +38374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>347</v>
       </c>
@@ -38386,7 +38439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>347</v>
       </c>
@@ -38463,7 +38516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>347</v>
       </c>
@@ -38528,7 +38581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>347</v>
       </c>
@@ -38593,7 +38646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>347</v>
       </c>
@@ -38658,7 +38711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>347</v>
       </c>
@@ -38723,7 +38776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>347</v>
       </c>
@@ -38788,7 +38841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>348</v>
       </c>
@@ -38853,7 +38906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>348</v>
       </c>
@@ -38918,7 +38971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>348</v>
       </c>
@@ -38983,7 +39036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>348</v>
       </c>
@@ -39048,7 +39101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>348</v>
       </c>
@@ -39113,7 +39166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>348</v>
       </c>
@@ -39178,7 +39231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>347</v>
       </c>
@@ -39243,7 +39296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>347</v>
       </c>
@@ -39308,7 +39361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>347</v>
       </c>
@@ -39373,7 +39426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>347</v>
       </c>
@@ -39438,7 +39491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>347</v>
       </c>
@@ -39503,7 +39556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>347</v>
       </c>
@@ -39568,7 +39621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>347</v>
       </c>
@@ -39633,7 +39686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>348</v>
       </c>
@@ -39698,7 +39751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>347</v>
       </c>
@@ -39763,7 +39816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>348</v>
       </c>
@@ -39828,7 +39881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>347</v>
       </c>
@@ -39893,7 +39946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>347</v>
       </c>
@@ -39958,7 +40011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>347</v>
       </c>
@@ -40023,7 +40076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>348</v>
       </c>
@@ -40088,7 +40141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>348</v>
       </c>
@@ -40153,7 +40206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>348</v>
       </c>
@@ -40218,7 +40271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>348</v>
       </c>
@@ -40283,7 +40336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>348</v>
       </c>
@@ -40348,7 +40401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>348</v>
       </c>
@@ -40413,7 +40466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>348</v>
       </c>
@@ -40478,7 +40531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>347</v>
       </c>
@@ -40543,7 +40596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>348</v>
       </c>
@@ -40608,7 +40661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>347</v>
       </c>
@@ -40673,7 +40726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>347</v>
       </c>
@@ -40738,7 +40791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>348</v>
       </c>
@@ -40803,7 +40856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>347</v>
       </c>
@@ -40868,7 +40921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>348</v>
       </c>
@@ -40933,7 +40986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>347</v>
       </c>
@@ -40998,7 +41051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>348</v>
       </c>
@@ -41063,7 +41116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>348</v>
       </c>
@@ -41128,7 +41181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>348</v>
       </c>
@@ -41193,7 +41246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>347</v>
       </c>
@@ -41258,7 +41311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>348</v>
       </c>
@@ -41323,7 +41376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>347</v>
       </c>
@@ -41388,7 +41441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>348</v>
       </c>
@@ -41453,7 +41506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>348</v>
       </c>
@@ -41518,7 +41571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>347</v>
       </c>
@@ -41583,7 +41636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G697">
         <v>1</v>
       </c>
@@ -41612,7 +41665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G698">
         <v>1</v>
       </c>
@@ -41641,7 +41694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G699">
         <v>1</v>
       </c>
@@ -41670,7 +41723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G700">
         <v>1</v>
       </c>
@@ -41699,7 +41752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G701">
         <v>1</v>
       </c>
@@ -41725,7 +41778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>194</v>
       </c>
@@ -41784,7 +41837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>194</v>
       </c>
@@ -41843,7 +41896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>194</v>
       </c>
@@ -41902,7 +41955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>194</v>
       </c>
@@ -41961,7 +42014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>194</v>
       </c>
@@ -42020,7 +42073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>194</v>
       </c>
@@ -42079,7 +42132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>194</v>
       </c>
@@ -42138,7 +42191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>194</v>
       </c>
@@ -42197,7 +42250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>194</v>
       </c>
@@ -42256,7 +42309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>194</v>
       </c>
@@ -42315,7 +42368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>194</v>
       </c>
@@ -42374,7 +42427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>194</v>
       </c>
@@ -42433,7 +42486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>194</v>
       </c>
@@ -42492,7 +42545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>194</v>
       </c>
@@ -42551,7 +42604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>194</v>
       </c>
@@ -42610,7 +42663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>194</v>
       </c>
@@ -42669,7 +42722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>194</v>
       </c>
@@ -42728,7 +42781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>194</v>
       </c>
@@ -42787,7 +42840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>194</v>
       </c>
@@ -42846,7 +42899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>194</v>
       </c>
@@ -42905,7 +42958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>194</v>
       </c>
@@ -42964,7 +43017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>194</v>
       </c>
@@ -43023,7 +43076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>194</v>
       </c>
@@ -43082,7 +43135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>194</v>
       </c>
@@ -43141,7 +43194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>194</v>
       </c>
@@ -43200,7 +43253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>194</v>
       </c>
@@ -43259,7 +43312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>194</v>
       </c>
@@ -43318,7 +43371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>194</v>
       </c>
@@ -43377,7 +43430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>194</v>
       </c>
@@ -43436,7 +43489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>194</v>
       </c>
@@ -43495,7 +43548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>194</v>
       </c>
@@ -43554,7 +43607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>194</v>
       </c>
@@ -43613,7 +43666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>194</v>
       </c>
@@ -43672,7 +43725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>194</v>
       </c>
@@ -43731,7 +43784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>194</v>
       </c>
@@ -43790,7 +43843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>194</v>
       </c>
@@ -43849,7 +43902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G738">
         <v>1</v>
       </c>
@@ -43878,7 +43931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G739">
         <v>1</v>
       </c>
@@ -43907,7 +43960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G740">
         <v>1</v>
       </c>
@@ -43936,7 +43989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G741">
         <v>1</v>
       </c>
@@ -43965,7 +44018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>194</v>
       </c>
@@ -44024,7 +44077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>194</v>
       </c>
@@ -44083,7 +44136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>194</v>
       </c>
@@ -44139,7 +44192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>194</v>
       </c>
@@ -44198,7 +44251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>194</v>
       </c>
@@ -44257,7 +44310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>194</v>
       </c>
@@ -44316,7 +44369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>194</v>
       </c>
@@ -44375,7 +44428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>194</v>
       </c>
@@ -44434,7 +44487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>194</v>
       </c>
@@ -44490,7 +44543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>194</v>
       </c>
@@ -44549,7 +44602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>194</v>
       </c>
@@ -44608,7 +44661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:192" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>194</v>
       </c>
@@ -44667,7 +44720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:192" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:192" x14ac:dyDescent="0.2">
       <c r="G754">
         <v>1</v>
       </c>
@@ -44703,16 +44756,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -44738,7 +44791,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -44764,7 +44817,7 @@
         <v>1.2576701641100001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -44790,7 +44843,7 @@
         <v>1.3243310451500001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -44816,7 +44869,7 @@
         <v>1.3410048484799999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -44842,7 +44895,7 @@
         <v>1.30781292915</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -44868,7 +44921,7 @@
         <v>1.2745339870500001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -44894,7 +44947,7 @@
         <v>1.4075660705599999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -44920,7 +44973,7 @@
         <v>1.3409931659700001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -44946,7 +44999,7 @@
         <v>1.4744069576300001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -44972,7 +45025,7 @@
         <v>1.2078409194899999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -44998,7 +45051,7 @@
         <v>1.5323748588599999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -45024,7 +45077,7 @@
         <v>1.2910358905799999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -45050,7 +45103,7 @@
         <v>1.3743019104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -45076,7 +45129,7 @@
         <v>1.5244309902199999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -45102,7 +45155,7 @@
         <v>1.37438082695</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -45128,7 +45181,7 @@
         <v>1.2909979820299999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -45154,7 +45207,7 @@
         <v>1.3244051933300001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -45180,7 +45233,7 @@
         <v>1.3411769866900001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -45206,7 +45259,7 @@
         <v>1.3911421299</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -45232,7 +45285,7 @@
         <v>1.3910539150200001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -45258,7 +45311,7 @@
         <v>1.47444486618</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -45284,7 +45337,7 @@
         <v>1.27444291115</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -45310,7 +45363,7 @@
         <v>1.3577580452</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -45336,7 +45389,7 @@
         <v>1.45771980286</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -45362,7 +45415,7 @@
         <v>1.2911159992200001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -45388,7 +45441,7 @@
         <v>1.3411347866100001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -45414,7 +45467,7 @@
         <v>1.3507828712500001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -45440,7 +45493,7 @@
         <v>1.39107584953</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -45466,7 +45519,7 @@
         <v>1.3076529502900001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -45492,7 +45545,7 @@
         <v>2.07469511032</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>194</v>
       </c>
@@ -45518,7 +45571,7 @@
         <v>1.3744289875</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -45544,7 +45597,7 @@
         <v>1.4077291488599999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -45570,7 +45623,7 @@
         <v>1.3243730068199999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -45596,7 +45649,7 @@
         <v>1.3078210353899999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -45622,7 +45675,7 @@
         <v>1.45772004128</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -45648,7 +45701,7 @@
         <v>1.20781612396</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -45674,7 +45727,7 @@
         <v>1.3244378566699999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -45700,7 +45753,7 @@
         <v>1.41560411453</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -45726,7 +45779,7 @@
         <v>1.3911290168799999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -45752,7 +45805,7 @@
         <v>1.32440400124</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -45778,7 +45831,7 @@
         <v>1.35779094696</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -45804,7 +45857,7 @@
         <v>1.24113893509</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -45830,7 +45883,7 @@
         <v>1.4408569335900001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -45857,8 +45910,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44">
-    <sortState ref="A2:H44">
+  <autoFilter ref="A1:H44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
       <sortCondition ref="C1:C44"/>
     </sortState>
   </autoFilter>
@@ -45868,16 +45921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -45903,7 +45956,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -45929,7 +45982,7 @@
         <v>2.05838704109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -45955,7 +46008,7 @@
         <v>1.97476315498</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -45981,7 +46034,7 @@
         <v>1.7747550010699999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -46007,7 +46060,7 @@
         <v>2.15836000443</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -46033,7 +46086,7 @@
         <v>2.44154787064</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>194</v>
       </c>
@@ -46059,7 +46112,7 @@
         <v>1.8416259288800001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -46085,7 +46138,7 @@
         <v>1.8080749511700001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -46111,7 +46164,7 @@
         <v>1.74151206017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -46137,7 +46190,7 @@
         <v>1.6084198951699999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
@@ -46163,7 +46216,7 @@
         <v>1.5419099330899999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -46189,7 +46242,7 @@
         <v>2.0418181419399999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -46215,7 +46268,7 @@
         <v>1.5581200122800001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -46241,7 +46294,7 @@
         <v>1.85833382607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -46267,7 +46320,7 @@
         <v>1.70824289322</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -46293,7 +46346,7 @@
         <v>2.1417300701099999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -46319,7 +46372,7 @@
         <v>2.0087368488299999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -46345,7 +46398,7 @@
         <v>1.82521009445</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
@@ -46371,7 +46424,7 @@
         <v>1.7417531013500001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
@@ -46397,7 +46450,7 @@
         <v>1.4918279647799999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -46423,7 +46476,7 @@
         <v>1.9253478050199999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
@@ -46449,7 +46502,7 @@
         <v>2.0583980083500002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -46475,7 +46528,7 @@
         <v>1.79208397865</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -46501,7 +46554,7 @@
         <v>1.72488093376</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -46527,7 +46580,7 @@
         <v>2.17535305023</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>194</v>
       </c>
@@ -46553,7 +46606,7 @@
         <v>1.9581291675600001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -46579,7 +46632,7 @@
         <v>1.9752609729799999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -46605,7 +46658,7 @@
         <v>1.85844087601</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -46631,7 +46684,7 @@
         <v>2.0916640758499998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -46657,7 +46710,7 @@
         <v>1.87492585182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>194</v>
       </c>
@@ -46683,7 +46736,7 @@
         <v>1.6088061332700001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -46709,7 +46762,7 @@
         <v>1.65841698647</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -46735,7 +46788,7 @@
         <v>1.6748721599600001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -46761,7 +46814,7 @@
         <v>1.72461819649</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -46787,7 +46840,7 @@
         <v>1.8914020061500001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -46813,7 +46866,7 @@
         <v>1.87533903122</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -46840,8 +46893,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37">
-    <sortState ref="A2:H37">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
       <sortCondition ref="E1:E37"/>
     </sortState>
   </autoFilter>
@@ -46851,16 +46904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -46886,7 +46939,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -46912,7 +46965,7 @@
         <v>2.1584351062799998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -46938,7 +46991,7 @@
         <v>2.3080768585200002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -46964,7 +47017,7 @@
         <v>2.1913578510299998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -46990,7 +47043,7 @@
         <v>2.4416451454199999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -47016,7 +47069,7 @@
         <v>2.3917608261100001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -47042,7 +47095,7 @@
         <v>1.99143099785</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -47065,7 +47118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -47088,7 +47141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -47114,7 +47167,7 @@
         <v>1.8248360157000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -47140,7 +47193,7 @@
         <v>2.17471003532</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -47166,7 +47219,7 @@
         <v>2.1913690567000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -47193,8 +47246,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13">
-    <sortState ref="A2:H13">
+  <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
       <sortCondition ref="C1:C13"/>
     </sortState>
   </autoFilter>
@@ -47204,16 +47257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>644</v>
       </c>
@@ -47245,7 +47298,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -47277,7 +47330,7 @@
         <v>0.56429600715600003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -47309,7 +47362,7 @@
         <v>0.54748606681800005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -47341,7 +47394,7 @@
         <v>0.51350903511000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -47373,7 +47426,7 @@
         <v>0.63083410263100004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -47405,7 +47458,7 @@
         <v>0.49770188331600002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -47437,7 +47490,7 @@
         <v>0.59725213050799997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -47469,7 +47522,7 @@
         <v>0.58041000366200002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -47501,7 +47554,7 @@
         <v>0.58068203926100004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -47533,7 +47586,7 @@
         <v>0.49725294113200003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -47565,7 +47618,7 @@
         <v>0.61423277854900005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -47597,7 +47650,7 @@
         <v>0.48051309585599999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -47629,7 +47682,7 @@
         <v>0.84673309326199997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -47661,7 +47714,7 @@
         <v>0.66408109664899995</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -47694,10 +47747,10 @@
       </c>
       <c r="K15">
         <f ca="1">RANDBETWEEN(36,136)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -47729,7 +47782,7 @@
         <v>0.54773092269900003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -47761,7 +47814,7 @@
         <v>0.48128414154100002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -47793,7 +47846,7 @@
         <v>0.53076815605200001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -47825,7 +47878,7 @@
         <v>0.564165115356</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -47857,7 +47910,7 @@
         <v>0.64767694473299997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -47889,7 +47942,7 @@
         <v>0.58113598823500001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -47921,7 +47974,7 @@
         <v>0.66399598121600001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -47953,7 +48006,7 @@
         <v>0.58092689514200002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -47985,7 +48038,7 @@
         <v>0.56418395042400005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -48017,7 +48070,7 @@
         <v>0.59783101081800005</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -48049,7 +48102,7 @@
         <v>0.53081703185999995</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -48081,7 +48134,7 @@
         <v>0.53078198432900003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -48113,7 +48166,7 @@
         <v>0.48055601120000002</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -48145,7 +48198,7 @@
         <v>0.63075184822100006</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -48177,7 +48230,7 @@
         <v>0.61407089233400003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -48209,7 +48262,7 @@
         <v>0.564415931702</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -48241,7 +48294,7 @@
         <v>0.51390504836999995</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -48273,7 +48326,7 @@
         <v>0.51440095901500005</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -48305,7 +48358,7 @@
         <v>0.53068184852599998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -48337,7 +48390,7 @@
         <v>0.63108396530199995</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -48369,7 +48422,7 @@
         <v>0.53091502189600004</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -48401,7 +48454,7 @@
         <v>0.56397390365599998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -48433,7 +48486,7 @@
         <v>0.51403284072900002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -48465,7 +48518,7 @@
         <v>0.61449003219599996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -48497,7 +48550,7 @@
         <v>0.51437401771500002</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -48529,7 +48582,7 @@
         <v>0.53124380111699998</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -48561,7 +48614,7 @@
         <v>0.59791421890300001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -48593,7 +48646,7 @@
         <v>0.53086996078500004</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -48625,7 +48678,7 @@
         <v>0.56403803825400001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -48657,7 +48710,7 @@
         <v>0.53100299835200004</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -48689,7 +48742,7 @@
         <v>0.53107404708899997</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -48721,7 +48774,7 @@
         <v>0.93091297149700003</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -48753,7 +48806,7 @@
         <v>0.58118700981100002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -48785,7 +48838,7 @@
         <v>0.58067917823799997</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -48817,7 +48870,7 @@
         <v>0.54761099815400005</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -48849,7 +48902,7 @@
         <v>0.51195716857899998</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -48881,7 +48934,7 @@
         <v>0.54792904853799995</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -48913,7 +48966,7 @@
         <v>0.56423282623299997</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -48945,7 +48998,7 @@
         <v>0.53118991851800001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -48977,7 +49030,7 @@
         <v>0.53097820281999997</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -49009,7 +49062,7 @@
         <v>0.51437401771500002</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -49041,7 +49094,7 @@
         <v>0.53119802475</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -49073,7 +49126,7 @@
         <v>0.58095693588300001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -49105,7 +49158,7 @@
         <v>0.61424112319900004</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -49137,7 +49190,7 @@
         <v>0.61424899101300001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -49169,7 +49222,7 @@
         <v>0.49792098999000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -49201,7 +49254,7 @@
         <v>0.56424903869599996</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -49233,7 +49286,7 @@
         <v>0.56447601318399998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -49265,7 +49318,7 @@
         <v>0.51429605483999996</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -49297,7 +49350,7 @@
         <v>0.56398391723600005</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -49329,7 +49382,7 @@
         <v>0.51432299613999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -49361,7 +49414,7 @@
         <v>0.48078298568700001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -49393,7 +49446,7 @@
         <v>0.59767889976499999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -49425,7 +49478,7 @@
         <v>0.53110098838800002</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -49457,7 +49510,7 @@
         <v>0.49794292449999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -49489,7 +49542,7 @@
         <v>0.59752798080400005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -49521,7 +49574,7 @@
         <v>0.46420478820799999</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -49553,7 +49606,7 @@
         <v>0.51433491706800005</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -49585,7 +49638,7 @@
         <v>0.62846398353599997</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -49617,7 +49670,7 @@
         <v>0.69737195968599996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -49649,7 +49702,7 @@
         <v>0.49764418601999999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -49681,7 +49734,7 @@
         <v>0.58112502098100005</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -49713,7 +49766,7 @@
         <v>0.580862998962</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -49745,7 +49798,7 @@
         <v>0.53123903274499995</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -49777,7 +49830,7 @@
         <v>0.513746023178</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -49809,7 +49862,7 @@
         <v>0.58134198188800001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -49841,7 +49894,7 @@
         <v>0.51437902450600004</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -49873,7 +49926,7 @@
         <v>0.54759597778299995</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -49905,7 +49958,7 @@
         <v>0.51358509063699997</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -49937,7 +49990,7 @@
         <v>0.61420202255199996</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -49969,7 +50022,7 @@
         <v>0.67844200134300003</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -50001,7 +50054,7 @@
         <v>0.61426997184800003</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -50033,7 +50086,7 @@
         <v>0.59742522239700002</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -50065,7 +50118,7 @@
         <v>0.56416702270499997</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -50097,7 +50150,7 @@
         <v>0.58090996742199996</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -50129,7 +50182,7 @@
         <v>0.54770517349199999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -50161,7 +50214,7 @@
         <v>0.53075885772700004</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -50193,7 +50246,7 @@
         <v>0.63110709190400005</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -50225,7 +50278,7 @@
         <v>0.56422400474500001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -50257,7 +50310,7 @@
         <v>0.53072595596299998</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -50289,7 +50342,7 @@
         <v>0.48095417022699999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -50321,7 +50374,7 @@
         <v>0.58078598976100004</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -50353,7 +50406,7 @@
         <v>0.66393089294399998</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -50385,7 +50438,7 @@
         <v>0.59757494926499999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -50417,7 +50470,7 @@
         <v>0.58104395866400005</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -50449,7 +50502,7 @@
         <v>0.59753799438499999</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -50481,7 +50534,7 @@
         <v>0.54709887504599997</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -50513,7 +50566,7 @@
         <v>0.53098297119100002</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -50545,7 +50598,7 @@
         <v>0.51379013061500001</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -50577,7 +50630,7 @@
         <v>0.49703121185299998</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -50609,7 +50662,7 @@
         <v>0.58094906806900004</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -50641,7 +50694,7 @@
         <v>0.63118696212799996</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -50673,7 +50726,7 @@
         <v>0.56459712982200005</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -50709,7 +50762,7 @@
         <v>0.53903901576983337</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -50741,7 +50794,7 @@
         <v>0.49767112731899998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -50773,7 +50826,7 @@
         <v>0.54768490791299995</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -50805,7 +50858,7 @@
         <v>0.63099598884600006</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -50837,7 +50890,7 @@
         <v>0.46440291404700001</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -50869,7 +50922,7 @@
         <v>0.595674037933</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -50901,7 +50954,7 @@
         <v>0.54751300811799997</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -50933,7 +50986,7 @@
         <v>0.630519866943</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -50965,7 +51018,7 @@
         <v>0.63064599037199998</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -50997,7 +51050,7 @@
         <v>0.563986063004</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -51029,7 +51082,7 @@
         <v>0.54746389389000005</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -51061,7 +51114,7 @@
         <v>0.49731898307799999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -51093,7 +51146,7 @@
         <v>0.58094906806900004</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -51125,7 +51178,7 @@
         <v>0.58095502853400005</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -51157,7 +51210,7 @@
         <v>0.49744486808799998</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -51189,7 +51242,7 @@
         <v>0.56449007988</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -51221,7 +51274,7 @@
         <v>0.54754900932299999</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -51253,7 +51306,7 @@
         <v>0.57912802696200005</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -51285,7 +51338,7 @@
         <v>0.58080601692199996</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -51317,7 +51370,7 @@
         <v>0.54748296737699997</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -51349,7 +51402,7 @@
         <v>0.51363182067900004</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -51381,7 +51434,7 @@
         <v>0.49785614013700003</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -51413,7 +51466,7 @@
         <v>0.564342975616</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -51445,7 +51498,7 @@
         <v>0.53071689605700001</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -51477,7 +51530,7 @@
         <v>0.58103013038600004</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -51509,7 +51562,7 @@
         <v>0.63083600997900002</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -51541,7 +51594,7 @@
         <v>0.58100700378400005</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -51573,7 +51626,7 @@
         <v>0.54537606239299996</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -51605,7 +51658,7 @@
         <v>0.47770500183100001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I139" t="s">
         <v>649</v>
       </c>
@@ -51614,7 +51667,7 @@
         <v>0.56262593058975741</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I140" t="s">
         <v>650</v>
       </c>
@@ -51623,7 +51676,7 @@
         <v>6.3774072962196324E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I141" t="s">
         <v>651</v>
       </c>
@@ -51635,7 +51688,7 @@
         <v>0.40319074818426659</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I142" t="s">
         <v>652</v>
       </c>
@@ -51644,7 +51697,7 @@
         <v>0.40319074818426659</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I143" t="s">
         <v>653</v>
       </c>
@@ -51654,8 +51707,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J137">
-    <sortState ref="A2:J137">
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J137">
       <sortCondition ref="A1:A137"/>
     </sortState>
   </autoFilter>
